--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H2">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.21017281846107</v>
+        <v>0.128124</v>
       </c>
       <c r="N2">
-        <v>0.21017281846107</v>
+        <v>0.384372</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3522399658364659</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.352239965836466</v>
       </c>
       <c r="Q2">
-        <v>15.27845943061089</v>
+        <v>12.673100640348</v>
       </c>
       <c r="R2">
-        <v>15.27845943061089</v>
+        <v>114.057905763132</v>
       </c>
       <c r="S2">
-        <v>0.7607719698028754</v>
+        <v>0.2860479166839977</v>
       </c>
       <c r="T2">
-        <v>0.7607719698028754</v>
+        <v>0.2860479166839978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0230913139886</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H3">
-        <v>17.0230913139886</v>
+        <v>296.738331</v>
       </c>
       <c r="I3">
-        <v>0.1781516768838185</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J3">
-        <v>0.1781516768838185</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.21017281846107</v>
+        <v>0.2109236666666666</v>
       </c>
       <c r="N3">
-        <v>0.21017281846107</v>
+        <v>0.632771</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5798737562109268</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5798737562109268</v>
       </c>
       <c r="Q3">
-        <v>3.577791080381144</v>
+        <v>20.86304560502233</v>
       </c>
       <c r="R3">
-        <v>3.577791080381144</v>
+        <v>187.767410445201</v>
       </c>
       <c r="S3">
-        <v>0.1781516768838185</v>
+        <v>0.4709053372463392</v>
       </c>
       <c r="T3">
-        <v>0.1781516768838185</v>
+        <v>0.4709053372463392</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,427 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>98.91277700000001</v>
+      </c>
+      <c r="H4">
+        <v>296.738331</v>
+      </c>
+      <c r="I4">
+        <v>0.8120825131376513</v>
+      </c>
+      <c r="J4">
+        <v>0.8120825131376513</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.024693</v>
+      </c>
+      <c r="N4">
+        <v>0.07407900000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.06788627795260727</v>
+      </c>
+      <c r="P4">
+        <v>0.06788627795260727</v>
+      </c>
+      <c r="Q4">
+        <v>2.442453202461</v>
+      </c>
+      <c r="R4">
+        <v>21.982078822149</v>
+      </c>
+      <c r="S4">
+        <v>0.05512925920731444</v>
+      </c>
+      <c r="T4">
+        <v>0.05512925920731444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5.83608505832861</v>
-      </c>
-      <c r="H4">
-        <v>5.83608505832861</v>
-      </c>
-      <c r="I4">
-        <v>0.06107635331330608</v>
-      </c>
-      <c r="J4">
-        <v>0.06107635331330608</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.21017281846107</v>
-      </c>
-      <c r="N4">
-        <v>0.21017281846107</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1.226586445487462</v>
-      </c>
-      <c r="R4">
-        <v>1.226586445487462</v>
-      </c>
-      <c r="S4">
-        <v>0.06107635331330608</v>
-      </c>
-      <c r="T4">
-        <v>0.06107635331330608</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>17.04862266666667</v>
+      </c>
+      <c r="H5">
+        <v>51.14586800000001</v>
+      </c>
+      <c r="I5">
+        <v>0.1399706767982279</v>
+      </c>
+      <c r="J5">
+        <v>0.1399706767982279</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.128124</v>
+      </c>
+      <c r="N5">
+        <v>0.384372</v>
+      </c>
+      <c r="O5">
+        <v>0.3522399658364659</v>
+      </c>
+      <c r="P5">
+        <v>0.352239965836466</v>
+      </c>
+      <c r="Q5">
+        <v>2.184337730544001</v>
+      </c>
+      <c r="R5">
+        <v>19.65903957489601</v>
+      </c>
+      <c r="S5">
+        <v>0.04930326641351482</v>
+      </c>
+      <c r="T5">
+        <v>0.04930326641351483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>17.04862266666667</v>
+      </c>
+      <c r="H6">
+        <v>51.14586800000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1399706767982279</v>
+      </c>
+      <c r="J6">
+        <v>0.1399706767982279</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.2109236666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.632771</v>
+      </c>
+      <c r="O6">
+        <v>0.5798737562109268</v>
+      </c>
+      <c r="P6">
+        <v>0.5798737562109268</v>
+      </c>
+      <c r="Q6">
+        <v>3.595958004469778</v>
+      </c>
+      <c r="R6">
+        <v>32.363622040228</v>
+      </c>
+      <c r="S6">
+        <v>0.08116532211437406</v>
+      </c>
+      <c r="T6">
+        <v>0.08116532211437406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>17.04862266666667</v>
+      </c>
+      <c r="H7">
+        <v>51.14586800000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1399706767982279</v>
+      </c>
+      <c r="J7">
+        <v>0.1399706767982279</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.024693</v>
+      </c>
+      <c r="N7">
+        <v>0.07407900000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.06788627795260727</v>
+      </c>
+      <c r="P7">
+        <v>0.06788627795260727</v>
+      </c>
+      <c r="Q7">
+        <v>0.4209816395080002</v>
+      </c>
+      <c r="R7">
+        <v>3.788834755572001</v>
+      </c>
+      <c r="S7">
+        <v>0.009502088270339059</v>
+      </c>
+      <c r="T7">
+        <v>0.009502088270339059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.839988000000001</v>
+      </c>
+      <c r="H8">
+        <v>17.519964</v>
+      </c>
+      <c r="I8">
+        <v>0.0479468100641207</v>
+      </c>
+      <c r="J8">
+        <v>0.04794681006412069</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.128124</v>
+      </c>
+      <c r="N8">
+        <v>0.384372</v>
+      </c>
+      <c r="O8">
+        <v>0.3522399658364659</v>
+      </c>
+      <c r="P8">
+        <v>0.352239965836466</v>
+      </c>
+      <c r="Q8">
+        <v>0.7482426225120002</v>
+      </c>
+      <c r="R8">
+        <v>6.734183602608002</v>
+      </c>
+      <c r="S8">
+        <v>0.0168887827389534</v>
+      </c>
+      <c r="T8">
+        <v>0.0168887827389534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.839988000000001</v>
+      </c>
+      <c r="H9">
+        <v>17.519964</v>
+      </c>
+      <c r="I9">
+        <v>0.0479468100641207</v>
+      </c>
+      <c r="J9">
+        <v>0.04794681006412069</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2109236666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.632771</v>
+      </c>
+      <c r="O9">
+        <v>0.5798737562109268</v>
+      </c>
+      <c r="P9">
+        <v>0.5798737562109268</v>
+      </c>
+      <c r="Q9">
+        <v>1.231791682249333</v>
+      </c>
+      <c r="R9">
+        <v>11.086125140244</v>
+      </c>
+      <c r="S9">
+        <v>0.02780309685021354</v>
+      </c>
+      <c r="T9">
+        <v>0.02780309685021354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.839988000000001</v>
+      </c>
+      <c r="H10">
+        <v>17.519964</v>
+      </c>
+      <c r="I10">
+        <v>0.0479468100641207</v>
+      </c>
+      <c r="J10">
+        <v>0.04794681006412069</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.024693</v>
+      </c>
+      <c r="N10">
+        <v>0.07407900000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.06788627795260727</v>
+      </c>
+      <c r="P10">
+        <v>0.06788627795260727</v>
+      </c>
+      <c r="Q10">
+        <v>0.144206823684</v>
+      </c>
+      <c r="R10">
+        <v>1.297861413156</v>
+      </c>
+      <c r="S10">
+        <v>0.003254930474953765</v>
+      </c>
+      <c r="T10">
+        <v>0.003254930474953765</v>
       </c>
     </row>
   </sheetData>
